--- a/STIBO_AI_Onboarding_Template_[en].xlsx
+++ b/STIBO_AI_Onboarding_Template_[en].xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juancubides/Documents/GitHub/GOAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA18F6A4-7DF3-E04E-A91C-85CD655633B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B229353E-0089-6141-ADB4-749B613EA500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Integration Guide: AI for eCommerce</t>
   </si>
@@ -158,6 +158,18 @@
   </si>
   <si>
     <t xml:space="preserve"> ID </t>
+  </si>
+  <si>
+    <t>Category Description</t>
+  </si>
+  <si>
+    <t>AI Category Description</t>
+  </si>
+  <si>
+    <t>TBD.CATEGORY.WebDescription</t>
+  </si>
+  <si>
+    <t>Text (Max 300 chars)</t>
   </si>
 </sst>
 </file>
@@ -598,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F14"/>
+  <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -617,7 +629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" ht="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -695,25 +707,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
+    <row r="12" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B13:F14"/>
+    <mergeCell ref="B15:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
